--- a/data/income_statement/2digits/size/38_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/38_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>38-Waste collection, treatment and disposal activities; materials recovery</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>38-Waste collection, treatment and disposal activities; materials recovery</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,248 +841,283 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>70745.25951999999</v>
+        <v>76237.47736</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>93350.82456000001</v>
+        <v>101836.74266</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>183137.01326</v>
+        <v>191059.79714</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>111479.48924</v>
+        <v>125081.83321</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>168046.65401</v>
+        <v>182896.97355</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>254574.6602</v>
+        <v>279621.50874</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>210382.98901</v>
+        <v>249543.93978</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>289438.84432</v>
+        <v>329531.29678</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>439339.8889</v>
+        <v>487147.8472000001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>798047.1439</v>
+        <v>931138.57475</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>875350.8950799999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1019678.27396</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1304834.326</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>69266.39947999999</v>
+        <v>74108.09812000001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>91640.70232</v>
+        <v>99743.97302</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>178603.12329</v>
+        <v>186118.69122</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>104839.75724</v>
+        <v>117379.31862</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>151484.69928</v>
+        <v>164412.75445</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>222813.75768</v>
+        <v>246133.9644</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>201636.72942</v>
+        <v>236215.61139</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>276496.53695</v>
+        <v>314093.80999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>427286.63063</v>
+        <v>469244.12761</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>748197.02952</v>
+        <v>872260.57332</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>806557.3253299999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>938073.75761</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1231591.599</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>670.38026</v>
+        <v>822.0023400000001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>298.7047</v>
+        <v>445.28083</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1726.4363</v>
+        <v>1836.95988</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>3240.04132</v>
+        <v>3361.77902</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>14576.22064</v>
+        <v>16187.06006</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>26774.92266</v>
+        <v>27586.96536</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2419.60412</v>
+        <v>3910.71367</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>6357.604810000001</v>
+        <v>7482.381539999999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>3106.1491</v>
+        <v>5870.94283</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>32667.83796</v>
+        <v>36048.10464</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>54252.61397999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>62474.42325</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>49364.828</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>808.47978</v>
+        <v>1307.3769</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1411.41754</v>
+        <v>1647.48881</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2807.45367</v>
+        <v>3104.14604</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>3399.69068</v>
+        <v>4340.735570000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1985.73409</v>
+        <v>2297.15904</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>4985.97986</v>
+        <v>5900.57898</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>6326.655470000001</v>
+        <v>9417.61472</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>6584.702560000001</v>
+        <v>7955.10525</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>8947.10917</v>
+        <v>12032.77676</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>17182.27642</v>
+        <v>22829.89679</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>14540.95577</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>19130.0931</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>23877.899</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>168.40577</v>
+        <v>193.44587</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>169.40299</v>
+        <v>378.23767</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>183.6546</v>
+        <v>214.8196</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>374.18104</v>
+        <v>408.59392</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>595.41584</v>
+        <v>610.5682399999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>775.11112</v>
+        <v>776.48487</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1778.64434</v>
+        <v>1955.70164</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>922.83277</v>
+        <v>1271.54575</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1632.25415</v>
+        <v>1738.34913</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4149.52995</v>
+        <v>5441.157149999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2284.82978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3143.6018</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>79167.12699999999</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>152.56587</v>
+        <v>177.60597</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>125.80915</v>
+        <v>334.64383</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>177.08792</v>
+        <v>200.9309</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>353.1317099999999</v>
+        <v>378.73273</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>536.4855699999999</v>
+        <v>551.63797</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>732.9699099999999</v>
+        <v>734.3436599999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>722.89919</v>
+        <v>897.75149</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>693.4869100000001</v>
+        <v>1014.12521</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>902.72058</v>
+        <v>994.89903</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>3662.36695</v>
+        <v>4943.76296</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2127.43533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2896.83172</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>78724.19100000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1.067</v>
@@ -1190,10 +1126,10 @@
         <v>18.69724</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>6.461969999999999</v>
+        <v>8.503170000000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>18.9825</v>
+        <v>22.2375</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>15.29595</v>
@@ -1205,22 +1141,27 @@
         <v>21.63333</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>13.63419</v>
+        <v>37.08536</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>2.39323</v>
+        <v>9.60726</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>156.04232</v>
+        <v>162.08864</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>54.26544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>67.12492999999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>312.629</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>14.7729</v>
@@ -1229,10 +1170,10 @@
         <v>24.8966</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>0.10471</v>
+        <v>5.38553</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>2.06683</v>
+        <v>7.62369</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>43.63432</v>
@@ -1241,220 +1182,250 @@
         <v>0.75</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1034.11182</v>
+        <v>1036.31682</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>215.71167</v>
+        <v>220.33518</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>727.14034</v>
+        <v>733.8428400000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>331.12068</v>
+        <v>335.30555</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>103.12901</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>179.64515</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>130.307</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>70576.85374999999</v>
+        <v>76044.03149000001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>93181.42156999999</v>
+        <v>101458.50499</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>182953.35866</v>
+        <v>190844.97754</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>111105.3082</v>
+        <v>124673.23929</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>167451.23817</v>
+        <v>182286.40531</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>253799.54908</v>
+        <v>278845.02387</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>208604.34467</v>
+        <v>247588.23814</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>288516.01155</v>
+        <v>328259.75103</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>437707.63475</v>
+        <v>485409.49807</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>793897.6139499999</v>
+        <v>925697.4176</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>873066.0652999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1016534.67216</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1225667.199</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>59871.50889</v>
+        <v>64440.59705999999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>80892.97851</v>
+        <v>87194.06124000001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>166710.90107</v>
+        <v>172851.41499</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>95521.43032</v>
+        <v>106680.61154</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>147613.78133</v>
+        <v>160018.71207</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>223342.28512</v>
+        <v>241077.41867</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>181754.71253</v>
+        <v>216872.34115</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>253211.02185</v>
+        <v>289074.25828</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>394460.1449</v>
+        <v>431029.14388</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>683223.8103100001</v>
+        <v>802766.8945999999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>756197.6042899999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>875274.33253</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1061873.4</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>14221.63538</v>
+        <v>15457.4544</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>20675.21216</v>
+        <v>21777.54205</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>12708.91217</v>
+        <v>14694.63921</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>14777.29662</v>
+        <v>18958.88202</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>25360.6437</v>
+        <v>27524.43449</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>23618.1535</v>
+        <v>29684.4587</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>27617.63822</v>
+        <v>37564.1108</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>28692.01097</v>
+        <v>39712.36098</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>35908.2703</v>
+        <v>43418.7975</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>129294.0983</v>
+        <v>140464.85153</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>187614.23743</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>218847.79725</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>260902.921</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>36313.17295</v>
+        <v>38395.59717</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>46261.90983</v>
+        <v>49386.33367</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>130397.14132</v>
+        <v>134385.0352</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>63109.2732</v>
+        <v>67943.43407</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>77454.90327</v>
+        <v>84053.88832</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>157028.92212</v>
+        <v>162652.56838</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>130489.21978</v>
+        <v>142322.6552</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>173736.99302</v>
+        <v>186934.98885</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>317699.73303</v>
+        <v>335534.49136</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>440378.26854</v>
+        <v>524156.1771099999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>459911.63644</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>503547.65402</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>651796.4399999999</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>9077.324140000001</v>
+        <v>10328.16907</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>13827.95798</v>
+        <v>15902.28698</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>23245.52273</v>
+        <v>23412.41573</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>17514.36266</v>
+        <v>19657.79761</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>44274.86387000001</v>
+        <v>47917.01877</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>41304.79264</v>
+        <v>47345.77046</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>22330.96236</v>
+        <v>34502.69822</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>49283.69636</v>
+        <v>60378.10736</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>36084.74400999999</v>
+        <v>46783.4291</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>102333.62686</v>
+        <v>125892.98858</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>101269.66605</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>143736.03125</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>137913.645</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>259.37642</v>
@@ -1472,106 +1443,121 @@
         <v>523.37049</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1390.41686</v>
+        <v>1394.62113</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1316.89217</v>
+        <v>2482.87693</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1498.3215</v>
+        <v>2048.80109</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>4767.39756</v>
+        <v>5292.42592</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>11217.81661</v>
+        <v>12252.87738</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>7402.06437</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>9142.850010000002</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>11260.394</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>10705.34486</v>
+        <v>11603.43443</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>12288.44306</v>
+        <v>14264.44375</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>16242.45759</v>
+        <v>17993.56255</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>15583.87788</v>
+        <v>17992.62775</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>19837.45684</v>
+        <v>22267.69324</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>30457.26396</v>
+        <v>37767.6052</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>26849.63214</v>
+        <v>30715.89699</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>35304.98970000001</v>
+        <v>39185.49275</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>43247.48985</v>
+        <v>54380.35419</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>110673.80364</v>
+        <v>122930.523</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>116868.46101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>141260.33963</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>163793.799</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>9230.616980000001</v>
+        <v>10992.48377</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>11625.0677</v>
+        <v>13814.64261</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>17086.53172</v>
+        <v>20928.08862</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>20402.65084</v>
+        <v>26279.85507</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>27303.94423</v>
+        <v>34990.04556000001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>30873.02028</v>
+        <v>38428.73379</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>35467.37845</v>
+        <v>57376.40972</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>44182.13073</v>
+        <v>75570.98091</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>47623.36252</v>
+        <v>69769.34744</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>111250.94131</v>
+        <v>132032.10702</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>126490.1337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>166461.89695</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>200581.816</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>6.9604</v>
@@ -1589,223 +1575,253 @@
         <v>314.61948</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>223.00495</v>
+        <v>232.40495</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>148.25702</v>
+        <v>153.50702</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>85.15438</v>
+        <v>141.29418</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>38.76513</v>
+        <v>48.68495</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>284.31201</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>673.6368700000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>681.34422</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>445.568</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1500.0924</v>
+        <v>1611.37658</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1957.25766</v>
+        <v>2000.10942</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1785.0283</v>
+        <v>2327.18157</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>3359.78009</v>
+        <v>4139.8085</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2982.99135</v>
+        <v>3491.62096</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>4686.931550000001</v>
+        <v>5001.62309</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>4257.62066</v>
+        <v>5059.68534</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>4787.389230000001</v>
+        <v>6474.459699999999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>6673.76501</v>
+        <v>8653.22625</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>17539.99734</v>
+        <v>19359.68106</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>22273.84168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>25147.32164</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>22405.947</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>7723.564179999999</v>
+        <v>9374.146789999999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>9565.17317</v>
+        <v>11711.89632</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>15016.86377</v>
+        <v>18316.2674</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>16537.14536</v>
+        <v>21634.32118</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>24006.3334</v>
+        <v>31183.80512</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>25963.08378</v>
+        <v>33194.70575</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>31061.50077</v>
+        <v>52163.21736</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>39309.58712</v>
+        <v>68955.22702999999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>40910.83238</v>
+        <v>61067.43624</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>93426.63196000001</v>
+        <v>112388.11395</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>103542.65515</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>140633.23109</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>177730.301</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1474.72788</v>
+        <v>610.9506600000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>663.37536</v>
+        <v>449.80114</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-844.07413</v>
+        <v>-2934.52607</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-4818.772960000001</v>
+        <v>-8287.22732</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-7466.487389999999</v>
+        <v>-12722.35232</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-415.7563200000002</v>
+        <v>-661.1285899999998</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-8617.74631</v>
+        <v>-26660.51273</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-8877.141030000001</v>
+        <v>-36385.48816</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-4375.87267</v>
+        <v>-15388.99325</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-577.1376699999998</v>
+        <v>-9101.58402</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-9621.672690000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-25201.55732</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-36788.017</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>303.08437</v>
+        <v>3145.27966</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>346.50362</v>
+        <v>2658.49813</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>493.9767900000001</v>
+        <v>2233.38876</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1490.72919</v>
+        <v>2461.92449</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>590.8096400000001</v>
+        <v>4309.705109999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1380.60028</v>
+        <v>5895.696120000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1141.73146</v>
+        <v>20512.17546</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1008.19844</v>
+        <v>20896.63979</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>2465.72408</v>
+        <v>21048.05222</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>9384.509400000001</v>
+        <v>37114.52340999999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5636.96767</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>27011.74183</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>50435.729</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>73.18512</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>1.0166</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>8.354889999999999</v>
+        <v>226.06347</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>12.94435</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1.31445</v>
+        <v>238.86941</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>10.73782</v>
+        <v>5515.73245</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>5.12312</v>
+        <v>229.03939</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>7.18266</v>
+        <v>1433.211</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>229.66386</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>278.35438</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>7574.5897</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>10991.65</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1814,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0</v>
+        <v>590.5137099999999</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>0</v>
@@ -1838,52 +1854,62 @@
         <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>751.3059000000001</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>29.526</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>50.35934</v>
+        <v>371.84398</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>133.72824</v>
+        <v>193.90712</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>162.91928</v>
+        <v>203.29371</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>140.7471</v>
+        <v>252.86615</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>98.28379000000001</v>
+        <v>628.3344000000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>126.61761</v>
+        <v>425.7065</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>103.38747</v>
+        <v>573.56961</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>130.4482</v>
+        <v>8936.75143</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>175.20892</v>
+        <v>10133.48403</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>911.1315500000001</v>
+        <v>3704.03788</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>975.00609</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2678.62609</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2356.507</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1895,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>0</v>
@@ -1904,13 +1930,13 @@
         <v>0</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>32.16609</v>
+        <v>32.16845</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>302.84287</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>0</v>
+        <v>303.09961</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>32.3291</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>164.3304</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>218.845</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>2.9</v>
@@ -1931,115 +1962,130 @@
         <v>5.72987</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2.9</v>
+        <v>3.41</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>2.9</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>5.66396</v>
+        <v>192.37238</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>0.02587</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>40.354</v>
+        <v>1572.89088</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>0</v>
+        <v>591.88701</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>0</v>
+        <v>100.71611</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>20.50006</v>
+        <v>21.18886</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>10.45884</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>560.558</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>18.57118</v>
+        <v>18.57509</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>3.27678</v>
+        <v>4.361470000000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>3.52062</v>
+        <v>34.43458</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>7.71517</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>5.20044</v>
+        <v>5.53563</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1.40398</v>
+        <v>12.35238</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1.08582</v>
+        <v>15.71664</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>6.90498</v>
+        <v>6.90746</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>7.27914</v>
+        <v>12.81486</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>15.46441</v>
+        <v>2399.27835</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>25.69082</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>26.41334</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>13.473</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>147.07346</v>
+        <v>2552.90561</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>88.14425</v>
+        <v>2255.44191</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>148.64868</v>
+        <v>1158.98879</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1012.56621</v>
+        <v>1414.54153</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>275.66456</v>
+        <v>2920.88431</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>306.23327</v>
+        <v>3007.68609</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>342.3526800000001</v>
+        <v>10916.2862</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>309.83606</v>
+        <v>7946.566139999999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>293.54345</v>
+        <v>5946.91597</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>5605.047209999999</v>
+        <v>27330.30146</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2105.64162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>12218.94409</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>31734.955</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2105,7 +2156,7 @@
         <v>5.36883</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>16.66268</v>
+        <v>17.01856</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>86.07978</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>33.40447</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>116.757</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>84.18039</v>
+        <v>199.05498</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>115.62448</v>
+        <v>125.87264</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>171.54843</v>
+        <v>237.29159</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>318.44582</v>
+        <v>357.83817</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>188.94483</v>
+        <v>545.52633</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>837.83267</v>
+        <v>2103.883440000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>541.36976</v>
+        <v>1815.53341</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>247.67438</v>
+        <v>2877.27666</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1965.84723</v>
+        <v>3100.79208</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2484.29343</v>
+        <v>3311.64412</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2044.08105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3553.669</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>4413.458</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>370.64531</v>
+        <v>3206.51017</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>243.93661</v>
+        <v>1711.79949</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>505.22088</v>
+        <v>2764.27344</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1176.35122</v>
+        <v>1829.53539</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>651.7332700000001</v>
+        <v>3924.77399</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>405.87171</v>
+        <v>2767.61585</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>951.14186</v>
+        <v>14741.99001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>902.2304099999999</v>
+        <v>9830.279839999999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>2626.09404</v>
+        <v>11191.55759</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>8791.884330000001</v>
+        <v>32466.60095</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3393.13763</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>17643.55681</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>41374.614</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>9.009829999999999</v>
@@ -2207,49 +2273,54 @@
         <v>1.45992</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>3.89366</v>
+        <v>5.5593</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2.03424</v>
+        <v>3.00359</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>35.38035</v>
+        <v>37.82713</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>9.5204</v>
+        <v>12.11971</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2.01136</v>
+        <v>2.80876</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>10.26629</v>
+        <v>74.08544999999999</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>371.50491</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>20.45006</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>79.31466999999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>115.594</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>58.23296</v>
+        <v>172.25729</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>63.35659</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>240.60026</v>
+        <v>285.60026</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>44.2854</v>
+        <v>66.38222999999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>49.2683</v>
+        <v>55.2811</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>18.88</v>
@@ -2261,19 +2332,24 @@
         <v>279.58898</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>639.2754399999999</v>
+        <v>649.78919</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>100.38832</v>
+        <v>105.32544</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>47.56091000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>589.345</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>4.717370000000001</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>689.51</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>119.89292</v>
+        <v>2822.93496</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>77.66726000000001</v>
+        <v>1527.46731</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>102.05836</v>
+        <v>2224.44656</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>992.07598</v>
+        <v>1588.67869</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>359.17612</v>
+        <v>3565.302459999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>305.76722</v>
+        <v>2543.46564</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>862.0300999999999</v>
+        <v>13321.46781</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>330.27378</v>
+        <v>8314.31673</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>244.45409</v>
+        <v>6133.742490000001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>7761.98451</v>
+        <v>30384.17307</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1579.70567</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>14188.88555</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>37815.647</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,245 +2516,280 @@
       <c r="M42" s="48" t="n">
         <v>13.57419</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>63.806</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>178.79223</v>
+        <v>197.59072</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>101.66713</v>
+        <v>119.72996</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>153.24503</v>
+        <v>244.90939</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>136.09618</v>
+        <v>168.91517</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>241.25461</v>
+        <v>301.18684</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>44.64037</v>
+        <v>166.23931</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>63.84506</v>
+        <v>1392.65619</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>290.34502</v>
+        <v>1233.5541</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1730.46749</v>
+        <v>4332.309730000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>546.25066</v>
+        <v>1593.8416</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1731.8468</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3314.22149</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>2100.712</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>703.51721</v>
+        <v>3022.03455</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>471.12608</v>
+        <v>1805.73766</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>469.01218</v>
+        <v>993.1302900000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>705.5689299999999</v>
+        <v>1440.02171</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1084.42733</v>
+        <v>1802.28053</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1189.61537</v>
+        <v>2385.78529</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1319.74137</v>
+        <v>4150.535059999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1560.06399</v>
+        <v>6339.4881</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2655.559400000001</v>
+        <v>5489.36363</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>7314.64475</v>
+        <v>13118.15861</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>8313.17468</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>37441.90461999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>29977.695</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>604.1301099999999</v>
+        <v>2922.64745</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>468.3137</v>
+        <v>1801.7064</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>430.84701</v>
+        <v>946.1795</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>674.63436</v>
+        <v>1398.16958</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>989.96252</v>
+        <v>1707.81572</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1088.27291</v>
+        <v>2279.23874</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1285.35418</v>
+        <v>3808.26178</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1496.46408</v>
+        <v>6099.884209999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>2624.77594</v>
+        <v>5136.020399999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>6867.408719999999</v>
+        <v>10241.91875</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>8222.78592</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>33410.85047</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>26355.119</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>99.38709999999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2.81238</v>
+        <v>4.031260000000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>38.16517</v>
+        <v>46.95079</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>30.93457</v>
+        <v>41.85213</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>94.46481</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>101.34246</v>
+        <v>106.54655</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>34.38719</v>
+        <v>342.27328</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>63.59991</v>
+        <v>239.60389</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>30.78346</v>
+        <v>353.34323</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>447.23603</v>
+        <v>2876.23986</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>90.38876</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>4031.05415</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>3622.576</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>703.6497300000001</v>
+        <v>-2472.3144</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>294.8162899999999</v>
+        <v>-409.2378800000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-1324.3304</v>
+        <v>-4458.54104</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-5209.96392</v>
+        <v>-9094.859930000001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-8611.83835</v>
+        <v>-14139.70173</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-630.64312</v>
+        <v>81.16639000000013</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-9746.898080000001</v>
+        <v>-25040.86234</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-10331.23699</v>
+        <v>-31658.61631</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-7191.802029999999</v>
+        <v>-11021.86225</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-7299.15735</v>
+        <v>-17571.82017</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-15691.01733</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-53275.27692</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-57704.597</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>196.18394</v>
+        <v>414.17004</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>261.71874</v>
+        <v>323.2538000000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>317.70876</v>
+        <v>821.7185000000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1200.65271</v>
+        <v>2135.95026</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2605.30999</v>
+        <v>3480.93124</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2045.94814</v>
+        <v>4249.99346</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1456.98396</v>
+        <v>3213.27713</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2600.58221</v>
+        <v>12138.14747</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1684.99452</v>
+        <v>12159.12457</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>10186.13406</v>
+        <v>19230.63529</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>5563.35246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>14154.45009</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>18838.328</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2681,106 +2807,121 @@
         <v>3.12788</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>34.98849000000001</v>
+        <v>35.38112</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>16.9061</v>
+        <v>22.84138</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>5.04936</v>
+        <v>11.71256</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>34.98953999999999</v>
+        <v>34.98954</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>17.4398</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>6.6285</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6.92272</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>16.835</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>196.18394</v>
+        <v>414.17004</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>261.71874</v>
+        <v>323.2538000000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>313.36489</v>
+        <v>817.3746300000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1079.23856</v>
+        <v>2014.53611</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>2602.18211</v>
+        <v>3477.80336</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2010.95965</v>
+        <v>4214.61234</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1440.07786</v>
+        <v>3190.43575</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2595.53285</v>
+        <v>12126.43491</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1650.00498</v>
+        <v>12124.13503</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>10168.69426</v>
+        <v>19213.19549</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>5556.72396</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>14147.52737</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>18821.493</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>297.59061</v>
+        <v>303.02838</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>425.40234</v>
+        <v>519.04943</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>3608.85246</v>
+        <v>6304.420220000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>523.69664</v>
+        <v>2839.06132</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>956.33725</v>
+        <v>2678.51538</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>2538.18295</v>
+        <v>8311.517589999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1508.92161</v>
+        <v>6541.72002</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2695.97137</v>
+        <v>17561.77099</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>2241.26432</v>
+        <v>8281.12333</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>8246.49156</v>
+        <v>18844.02959</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>6727.65974</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>19397.96883</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>20223.685</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2789,229 +2930,257 @@
         <v>4.37062</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>69.0945</v>
+        <v>1896.73442</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>3.1399</v>
+        <v>1385.4314</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>24.39316</v>
+        <v>878.74286</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>222.52811</v>
+        <v>2906.75727</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>12.30533</v>
+        <v>2720.90984</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2.32126</v>
+        <v>3560.42932</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>0.04629999999999999</v>
+        <v>372.7012099999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>343.15286</v>
+        <v>1509.72912</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>271.51135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4829.40018</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>4520.132</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>13.20989</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>24.57905</v>
+        <v>106.84387</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>83.52320999999999</v>
+        <v>123.0782</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>12.47119</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>60.50382</v>
+        <v>62.2758</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>141.17555</v>
+        <v>141.5228</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>35.21289</v>
+        <v>177.34556</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>56.97246</v>
+        <v>77.13529</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>81.93052</v>
+        <v>236.09343</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>232.18368</v>
+        <v>339.89999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>460.82882</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>710.82689</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>157.8</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>284.38072</v>
+        <v>289.81849</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>396.4526700000001</v>
+        <v>407.83494</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>3456.23475</v>
+        <v>4284.607599999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>508.08555</v>
+        <v>1441.15873</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>871.4402700000001</v>
+        <v>1737.49672</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>2174.47929</v>
+        <v>5263.23752</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1461.40339</v>
+        <v>3643.46462</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>2636.67765</v>
+        <v>13924.20638</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>2159.2875</v>
+        <v>7672.328689999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>7671.155019999999</v>
+        <v>16994.40048</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>5995.319570000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>13857.74176</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>15545.753</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>602.24306</v>
+        <v>-2361.17274</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>131.13269</v>
+        <v>-605.03351</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-4615.474099999999</v>
+        <v>-9941.242759999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-4533.00785</v>
+        <v>-9797.97099</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-6962.865610000001</v>
+        <v>-13337.28587</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-1122.87793</v>
+        <v>-3980.35774</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-9798.835730000001</v>
+        <v>-28369.30523</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-10426.62615</v>
+        <v>-37082.23983</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-7748.07183</v>
+        <v>-7143.86101</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-5359.51485</v>
+        <v>-17185.21447</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-16855.32461</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-58518.79566</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-59089.954</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>369.37519</v>
+        <v>379.16327</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>340.24368</v>
+        <v>488.43838</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>603.71676</v>
+        <v>626.12749</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>495.0434</v>
+        <v>552.05452</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>669.84487</v>
+        <v>1144.97092</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>912.7358999999999</v>
+        <v>1394.24251</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>544.35374</v>
+        <v>1808.24416</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1032.53813</v>
+        <v>1337.43166</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1243.32663</v>
+        <v>2583.09497</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3887.32286</v>
+        <v>5774.892849999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>3874.73664</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>6414.79167</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>7847.144</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>232.86787</v>
+        <v>-2740.33601</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-209.11099</v>
+        <v>-1093.47189</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-5219.190860000001</v>
+        <v>-10567.37025</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-5028.05125</v>
+        <v>-10350.02551</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-7632.710480000001</v>
+        <v>-14482.25679</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-2035.61383</v>
+        <v>-5374.60025</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-10343.18947</v>
+        <v>-30177.54939</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-11459.16428</v>
+        <v>-38419.67149</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-8991.39846</v>
+        <v>-9726.955980000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-9246.837710000002</v>
+        <v>-22960.10732</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-20730.06125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-64933.58733</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-66937.098</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>522</v>
+        <v>583</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>580</v>
+        <v>665</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>603</v>
+        <v>719</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>686</v>
+        <v>844</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>770</v>
+        <v>932</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1046</v>
+        <v>1216</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1373</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>